--- a/Dokumentációk/Gantt-projekttervező_SM.xlsx
+++ b/Dokumentációk/Gantt-projekttervező_SM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FFE7F-F686-4D22-B5E0-63E4B6B031CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D763A-FC69-42D1-ABE5-DB2BABA050DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>TEVÉKENYSÉG</t>
   </si>
   <si>
-    <t>Tevékenység 03</t>
-  </si>
-  <si>
     <t>Tevékenység 04</t>
   </si>
   <si>
@@ -240,13 +237,16 @@
   <si>
     <t>Ütemterv</t>
   </si>
+  <si>
+    <t>Egyed-kapcsolat diagram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m\.\ d\.;@"/>
+    <numFmt numFmtId="164" formatCode="m\.\ d\.;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -631,6 +631,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="1" xfId="13" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -671,21 +686,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="13" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,8 +1099,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1140,75 +1140,75 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="40">
+        <v>30</v>
+      </c>
+      <c r="H2" s="26">
         <v>45901</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="29" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="35"/>
+      <c r="X2" s="40"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -1231,256 +1231,256 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="36">
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="22">
         <v>45901</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="22">
         <v>45902</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="22">
         <v>45903</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="22">
         <v>45904</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="22">
         <v>45905</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="22">
         <v>45906</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="22">
         <v>45907</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="22">
         <v>45908</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="22">
         <v>45909</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="22">
         <v>45910</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="22">
         <v>45911</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="22">
         <v>45912</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="22">
         <v>45913</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4" s="22">
         <v>45914</v>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="22">
         <v>45915</v>
       </c>
-      <c r="W4" s="36">
+      <c r="W4" s="22">
         <v>45916</v>
       </c>
-      <c r="X4" s="36">
+      <c r="X4" s="22">
         <v>45917</v>
       </c>
-      <c r="Y4" s="36">
+      <c r="Y4" s="22">
         <v>45918</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="Z4" s="22">
         <v>45919</v>
       </c>
-      <c r="AA4" s="36">
+      <c r="AA4" s="22">
         <v>45920</v>
       </c>
-      <c r="AB4" s="36">
+      <c r="AB4" s="22">
         <v>45921</v>
       </c>
-      <c r="AC4" s="36">
+      <c r="AC4" s="22">
         <v>45922</v>
       </c>
-      <c r="AD4" s="36">
+      <c r="AD4" s="22">
         <v>45923</v>
       </c>
-      <c r="AE4" s="36">
+      <c r="AE4" s="22">
         <v>45924</v>
       </c>
-      <c r="AF4" s="36">
+      <c r="AF4" s="22">
         <v>45925</v>
       </c>
-      <c r="AG4" s="36">
+      <c r="AG4" s="22">
         <v>45926</v>
       </c>
-      <c r="AH4" s="36">
+      <c r="AH4" s="22">
         <v>45927</v>
       </c>
-      <c r="AI4" s="36">
+      <c r="AI4" s="22">
         <v>45928</v>
       </c>
-      <c r="AJ4" s="36">
+      <c r="AJ4" s="22">
         <v>45929</v>
       </c>
-      <c r="AK4" s="36">
+      <c r="AK4" s="22">
         <v>45930</v>
       </c>
-      <c r="AL4" s="36">
+      <c r="AL4" s="22">
         <v>45931</v>
       </c>
-      <c r="AM4" s="36">
+      <c r="AM4" s="22">
         <v>45932</v>
       </c>
-      <c r="AN4" s="36">
+      <c r="AN4" s="22">
         <v>45933</v>
       </c>
-      <c r="AO4" s="36">
+      <c r="AO4" s="22">
         <v>45934</v>
       </c>
-      <c r="AP4" s="36">
+      <c r="AP4" s="22">
         <v>45935</v>
       </c>
-      <c r="AQ4" s="36">
+      <c r="AQ4" s="22">
         <v>45936</v>
       </c>
-      <c r="AR4" s="36">
+      <c r="AR4" s="22">
         <v>45937</v>
       </c>
-      <c r="AS4" s="36">
+      <c r="AS4" s="22">
         <v>45938</v>
       </c>
-      <c r="AT4" s="36">
+      <c r="AT4" s="22">
         <v>45939</v>
       </c>
-      <c r="AU4" s="36">
+      <c r="AU4" s="22">
         <v>45940</v>
       </c>
-      <c r="AV4" s="36">
+      <c r="AV4" s="22">
         <v>45941</v>
       </c>
-      <c r="AW4" s="36">
+      <c r="AW4" s="22">
         <v>45942</v>
       </c>
-      <c r="AX4" s="36">
+      <c r="AX4" s="22">
         <v>45943</v>
       </c>
-      <c r="AY4" s="36">
+      <c r="AY4" s="22">
         <v>45944</v>
       </c>
-      <c r="AZ4" s="36">
+      <c r="AZ4" s="22">
         <v>45945</v>
       </c>
-      <c r="BA4" s="36">
+      <c r="BA4" s="22">
         <v>45946</v>
       </c>
-      <c r="BB4" s="36">
+      <c r="BB4" s="22">
         <v>45947</v>
       </c>
-      <c r="BC4" s="36">
+      <c r="BC4" s="22">
         <v>45948</v>
       </c>
-      <c r="BD4" s="36">
+      <c r="BD4" s="22">
         <v>45949</v>
       </c>
-      <c r="BE4" s="36">
+      <c r="BE4" s="22">
         <v>45950</v>
       </c>
-      <c r="BF4" s="36">
+      <c r="BF4" s="22">
         <v>45951</v>
       </c>
-      <c r="BG4" s="36">
+      <c r="BG4" s="22">
         <v>45952</v>
       </c>
-      <c r="BH4" s="36">
+      <c r="BH4" s="22">
         <v>45953</v>
       </c>
-      <c r="BI4" s="36">
+      <c r="BI4" s="22">
         <v>45954</v>
       </c>
-      <c r="BJ4" s="36">
+      <c r="BJ4" s="22">
         <v>45955</v>
       </c>
-      <c r="BK4" s="36">
+      <c r="BK4" s="22">
         <v>45956</v>
       </c>
-      <c r="BL4" s="36">
+      <c r="BL4" s="22">
         <v>45957</v>
       </c>
-      <c r="BM4" s="36">
+      <c r="BM4" s="22">
         <v>45958</v>
       </c>
-      <c r="BN4" s="36">
+      <c r="BN4" s="22">
         <v>45959</v>
       </c>
-      <c r="BO4" s="36">
+      <c r="BO4" s="22">
         <v>45960</v>
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="25">
+        <v>45902</v>
+      </c>
+      <c r="D5" s="23">
+        <v>32</v>
+      </c>
+      <c r="E5" s="25">
+        <v>45903</v>
+      </c>
+      <c r="F5" s="23">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C6" s="25">
         <v>45902</v>
       </c>
-      <c r="D5" s="37">
-        <v>32</v>
-      </c>
-      <c r="E5" s="39">
-        <v>45903</v>
-      </c>
-      <c r="F5" s="37">
-        <v>29</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="39">
-        <v>45902</v>
-      </c>
       <c r="D6" s="6">
-        <v>39</v>
-      </c>
-      <c r="E6" s="39">
+        <v>37</v>
+      </c>
+      <c r="E6" s="25">
         <v>45905</v>
       </c>
       <c r="F6" s="6">
         <v>26</v>
       </c>
       <c r="G6" s="7">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C7" s="25">
+        <v>45910</v>
       </c>
       <c r="D7" s="6">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="25">
+        <v>45910</v>
       </c>
       <c r="F7" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="6">
         <v>4</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="6">
         <v>5</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6">
         <v>6</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8">
         <v>6</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6">
         <v>9</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="6">
         <v>9</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="6">
         <v>9</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6">
         <v>9</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6">
         <v>10</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6">
         <v>11</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="6">
         <v>12</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="6">
         <v>14</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="6">
         <v>14</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="6">
         <v>14</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="6">
         <v>15</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="6">
         <v>15</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="6">
         <v>15</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="6">
         <v>16</v>
@@ -1989,7 +1989,7 @@
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="795" yWindow="341" count="16">
+  <dataValidations disablePrompts="1" xWindow="795" yWindow="341" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A projekttervező időszakokat használ az időintervallumokhoz. A kezdés=1 az 1. időszakot, az időtartam=5 pedig azt jelenti, hogy a projekt a kezdőidőszaktól számítva 5 időszakon ível át. A diagram frissítéséhez kezdjen el adatokat beírni a B5 cellától." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Írjon be egy 1 és 60 közötti értéket, vagy válasszon egyet a listából. Válassza a MÉGSE lehetőséget, majd nyomja le az ALT+LE, ENTER billentyűkombinációt egy érték kiválasztásához." prompt="Válasszon egy időszakot 1 és 60 között, vagy válasszon egyet a listából. Az ALT+LE billentyűkombinációval navigálhat a listában, majd az ENTER billentyűt lenyomva kiválaszthat egy értéket." sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
